--- a/public/templates/opf.xlsx
+++ b/public/templates/opf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\openserv\OpenServer\domains\telegram.gaz\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988B5787-9B65-4A02-BD23-7E514A977190}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915D2C1C-A5ED-4ED7-B512-432DCF0FCC65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{072E3E38-D96E-4039-A4D6-31B1D8EC0BF7}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Wire instructions:</t>
   </si>
   <si>
-    <t xml:space="preserve">Total invoice amount </t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -45,12 +42,6 @@
     <t>Components for civil aviation aircraft</t>
   </si>
   <si>
-    <t>Delivery DXB, DAFZA</t>
-  </si>
-  <si>
-    <t>Not for use in U.A.E.</t>
-  </si>
-  <si>
     <t>NOTE:</t>
   </si>
   <si>
@@ -156,13 +147,25 @@
     <t>{name_own}</t>
   </si>
   <si>
-    <t>Bank address:   {baddress}</t>
-  </si>
-  <si>
     <t xml:space="preserve">IBAN:         {iban}    </t>
   </si>
   <si>
     <t>[unit]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Invoice Amount </t>
+  </si>
+  <si>
+    <t>Bank &amp; address:   {baddress}</t>
+  </si>
+  <si>
+    <t>{note1}</t>
+  </si>
+  <si>
+    <t>{note2}</t>
+  </si>
+  <si>
+    <t>{note3}</t>
   </si>
 </sst>
 </file>
@@ -259,18 +262,19 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -287,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -299,21 +303,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -654,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -663,147 +652,154 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -811,32 +807,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,6 +856,57 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1476374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{818F5302-06FD-4354-A68E-870BD2BCF53F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="657225" y="190500"/>
+          <a:ext cx="5772149" cy="1476374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1152,338 +1206,399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95DD5ED-281B-4F63-8BED-18F92079D97F}">
-  <dimension ref="A2:G37"/>
+  <dimension ref="B1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+    </row>
+    <row r="2" spans="2:7" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+    </row>
+    <row r="5" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="38"/>
+      <c r="C8" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="38"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="33"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="29" t="s">
+    </row>
+    <row r="10" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="39"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="76" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="76" t="s">
+      <c r="G11" s="77"/>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="27" t="s">
+      <c r="G12" s="49"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="49" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
+    </row>
+    <row r="17" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+      <c r="C21" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="11"/>
+      <c r="C22" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+    </row>
+    <row r="24" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="70"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="71"/>
+      <c r="D25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="50"/>
-    </row>
-    <row r="9" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="15"/>
-      <c r="B9" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="52"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="57"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="64" t="s">
+      <c r="C26" s="73"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="62"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="70"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="37" t="s">
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="78" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="78" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="64"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="48"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E10:F12"/>
+  <mergeCells count="20">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F13:G15"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G31"/>
   </mergeCells>
   <pageMargins left="0.42708333333333331" right="0.11811023622047245" top="0.58333333333333337" bottom="0.28125" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/templates/opf.xlsx
+++ b/public/templates/opf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\openserv\OpenServer\domains\telegram.gaz\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915D2C1C-A5ED-4ED7-B512-432DCF0FCC65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA210079-BDAA-4534-8981-D12DA0A1F583}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{072E3E38-D96E-4039-A4D6-31B1D8EC0BF7}"/>
+    <workbookView xWindow="9750" yWindow="1245" windowWidth="13050" windowHeight="11835" xr2:uid="{072E3E38-D96E-4039-A4D6-31B1D8EC0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="OPF" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -344,17 +344,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -639,11 +628,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -652,10 +665,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,109 +676,161 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -777,68 +840,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1208,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95DD5ED-281B-4F63-8BED-18F92079D97F}">
   <dimension ref="B1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:G19"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,347 +1249,347 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="2:7" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="26" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="38"/>
-      <c r="C8" s="74" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="24" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="38"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="24" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="39"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="76" t="s">
+      <c r="C11" s="69"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="77"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="50" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="48" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="49"/>
+      <c r="G12" s="66"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="53" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="54"/>
+      <c r="G13" s="71"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="68"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="31" t="s">
         <v>27</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="80" t="s">
+      <c r="F19" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="39" t="s">
         <v>34</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="45" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="C22" s="46" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-    </row>
-    <row r="24" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="69" t="s">
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="41" t="s">
+      <c r="C24" s="81"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="77" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="69" t="s">
+      <c r="G24" s="78"/>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>0</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="42">
+      <c r="F25" s="83">
         <v>0</v>
       </c>
+      <c r="G25" s="82"/>
     </row>
     <row r="26" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="41" t="s">
+      <c r="C26" s="59"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="79" t="s">
         <v>37</v>
       </c>
+      <c r="G26" s="80"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="49"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
@@ -1575,17 +1601,7 @@
       <c r="C40" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="C8:C10"/>
+  <mergeCells count="23">
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="F11:G11"/>
@@ -1596,6 +1612,19 @@
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C30:G31"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B17:G17"/>
   </mergeCells>
   <pageMargins left="0.42708333333333331" right="0.11811023622047245" top="0.58333333333333337" bottom="0.28125" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/templates/opf.xlsx
+++ b/public/templates/opf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Soft\openserv\OpenServer\domains\telegram.gaz\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA210079-BDAA-4534-8981-D12DA0A1F583}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C32C33-3552-4A27-AA25-52DB1C9F579C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9750" yWindow="1245" windowWidth="13050" windowHeight="11835" xr2:uid="{072E3E38-D96E-4039-A4D6-31B1D8EC0BF7}"/>
   </bookViews>
@@ -175,7 +175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$USD]\ #,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +276,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -720,15 +728,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -754,6 +753,93 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -762,9 +848,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -783,89 +866,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,7 +903,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
+      <xdr:colOff>695324</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1476374</xdr:rowOff>
     </xdr:to>
@@ -1234,13 +1242,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95DD5ED-281B-4F63-8BED-18F92079D97F}">
   <dimension ref="B1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:G28"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
@@ -1249,36 +1257,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="2:7" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C5" s="28" t="s">
@@ -1288,10 +1296,10 @@
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="26"/>
       <c r="E7" s="25"/>
       <c r="F7" s="24" t="s">
@@ -1302,8 +1310,8 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="36"/>
-      <c r="C8" s="60" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="70" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="10"/>
@@ -1316,8 +1324,8 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="36"/>
-      <c r="C9" s="60"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
       <c r="F9" s="22" t="s">
@@ -1328,46 +1336,46 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="37"/>
-      <c r="C10" s="61"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="20"/>
       <c r="E10" s="16"/>
       <c r="F10" s="18"/>
       <c r="G10" s="19"/>
     </row>
     <row r="11" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="10"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="64"/>
+      <c r="G11" s="45"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="48" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="66"/>
+      <c r="G12" s="47"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
-      <c r="C13" s="67"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="10"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="71"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
@@ -1376,16 +1384,16 @@
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="14"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
     </row>
     <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
@@ -1394,22 +1402,22 @@
       <c r="C16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="75"/>
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="80"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
@@ -1436,28 +1444,28 @@
       <c r="B19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="36" t="s">
         <v>34</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="38" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="8"/>
@@ -1467,7 +1475,7 @@
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="39" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="8"/>
@@ -1477,7 +1485,7 @@
     </row>
     <row r="22" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="40" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="8"/>
@@ -1486,110 +1494,110 @@
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
     </row>
     <row r="24" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="81"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="77" t="s">
+      <c r="F24" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="78"/>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="57"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
-      <c r="F25" s="83">
+      <c r="F25" s="62">
         <v>0</v>
       </c>
-      <c r="G25" s="82"/>
+      <c r="G25" s="63"/>
     </row>
     <row r="26" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="59"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="79" t="s">
+      <c r="F26" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="80"/>
+      <c r="G26" s="61"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="64"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
@@ -1602,6 +1610,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B17:G17"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="F11:G11"/>
@@ -1618,13 +1633,6 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B17:G17"/>
   </mergeCells>
   <pageMargins left="0.42708333333333331" right="0.11811023622047245" top="0.58333333333333337" bottom="0.28125" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
